--- a/sources/case/Adjust.xlsx
+++ b/sources/case/Adjust.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
   <si>
     <t>CaseID</t>
   </si>
@@ -83,9 +83,6 @@
     <t>employee_no</t>
   </si>
   <si>
-    <t>microfastup-20</t>
-  </si>
-  <si>
     <t>adjust_position_ID</t>
   </si>
   <si>
@@ -98,206 +95,233 @@
     <t>employee</t>
   </si>
   <si>
-    <t>测试10</t>
-  </si>
-  <si>
     <t>adjust_report_to_ID</t>
   </si>
   <si>
     <t>7e2cf1a7-b2e4-11e7-93d8-5254001aba5d</t>
   </si>
   <si>
+    <t>organization_ID</t>
+  </si>
+  <si>
+    <t>adjust_organization_ID</t>
+  </si>
+  <si>
+    <t>adjust_subordinates_detail</t>
+  </si>
+  <si>
+    <t>[{"uuid":"7e2c4e7a-b2e4-11e7-93d8-5254001aba5d"}]</t>
+  </si>
+  <si>
+    <t>effective_date</t>
+  </si>
+  <si>
+    <t>2017-10-24T11:10:20+08:00</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>调整审批测试</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>subordinates</t>
+  </si>
+  <si>
+    <t>0人</t>
+  </si>
+  <si>
+    <t>subordinates_detail</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>position_ID</t>
+  </si>
+  <si>
+    <t>tenant_id</t>
+  </si>
+  <si>
+    <t>00b19169-fc38-4e51-a99f-98f31ccaa46d</t>
+  </si>
+  <si>
+    <t>is_deleted</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>approval_create</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>approval_creating</t>
+  </si>
+  <si>
+    <t>/hr/v1/formrecords?form=employee_adjust</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adjust_organization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adjust_position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${position_2.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_2.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adjust_position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_1.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试13</t>
+  </si>
+  <si>
+    <t>7e2dba5c-b2e4-11e7-93d8-5254001aba5d</t>
+  </si>
+  <si>
+    <t>[{"uuid":"7e2e64d0-b2e4-11e7-93d8-5254001aba5d"}]</t>
+  </si>
+  <si>
+    <t>2017-10-27T16:39:48+08:00</t>
+  </si>
+  <si>
+    <t>${organization_1.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_2.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${position_1.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${position_1.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_1.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adjust</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adjust_2</t>
+  </si>
+  <si>
+    <t>Adjust_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>microfastup-${addMem_1.employee_no}</t>
+  </si>
+  <si>
+    <t>microfastup-${addMem_2.employee_no}</t>
+  </si>
+  <si>
+    <t>${addMem_1.position}</t>
+  </si>
+  <si>
+    <t>${addMem_2.position}</t>
+  </si>
+  <si>
     <t>employee_ID</t>
-  </si>
-  <si>
-    <t>7e2bb13d-b2e4-11e7-93d8-5254001aba5d</t>
-  </si>
-  <si>
-    <t>organization_ID</t>
-  </si>
-  <si>
-    <t>adjust_organization_ID</t>
-  </si>
-  <si>
-    <t>adjust_subordinates_detail</t>
-  </si>
-  <si>
-    <t>[{"uuid":"7e2c4e7a-b2e4-11e7-93d8-5254001aba5d"}]</t>
-  </si>
-  <si>
-    <t>effective_date</t>
-  </si>
-  <si>
-    <t>2017-10-24T11:10:20+08:00</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>调整审批测试</t>
-  </si>
-  <si>
-    <t>position</t>
-  </si>
-  <si>
-    <t>subordinates</t>
-  </si>
-  <si>
-    <t>0人</t>
-  </si>
-  <si>
-    <t>subordinates_detail</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>position_ID</t>
-  </si>
-  <si>
-    <t>tenant_id</t>
-  </si>
-  <si>
-    <t>00b19169-fc38-4e51-a99f-98f31ccaa46d</t>
-  </si>
-  <si>
-    <t>is_deleted</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>approval_create</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>5ceb080b-0e25-11e7-b0e5-00163e007053</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>approval_creating</t>
-  </si>
-  <si>
-    <t>/hr/v1/formrecords?form=employee_adjust</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>organization</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adjust_organization</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>organization_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adjust_position</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>position_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${position_2.uuid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>organization_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${organization_2.uuid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adjust_position</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>organization</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${organization_1.uuid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>organization_1</t>
-  </si>
-  <si>
-    <t>测试13</t>
-  </si>
-  <si>
-    <t>microfastup-26</t>
-  </si>
-  <si>
-    <t>position_1</t>
-  </si>
-  <si>
-    <t>测试16</t>
-  </si>
-  <si>
-    <t>7e2dba5c-b2e4-11e7-93d8-5254001aba5d</t>
-  </si>
-  <si>
-    <t>7e2fc6f6-b2e4-11e7-93d8-5254001aba5d</t>
-  </si>
-  <si>
-    <t>organization_2</t>
-  </si>
-  <si>
-    <t>[{"uuid":"7e2e64d0-b2e4-11e7-93d8-5254001aba5d"}]</t>
-  </si>
-  <si>
-    <t>2017-10-27T16:39:48+08:00</t>
-  </si>
-  <si>
-    <t>${organization_1.uuid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${organization_2.uuid}</t>
-  </si>
-  <si>
-    <t>${organization_2.uuid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${position_1.uuid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${position_1.uuid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${organization_1.uuid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>position_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Adjust</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Adjust_2</t>
-  </si>
-  <si>
-    <t>Adjust_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${addMem_1.uuid}</t>
+  </si>
+  <si>
+    <t>${addMem_2.uuid}</t>
+  </si>
+  <si>
+    <t>${addMem_1.organization}</t>
+  </si>
+  <si>
+    <t>${addMem_1.organization_ID}</t>
+  </si>
+  <si>
+    <t>${addMem_2.organization}</t>
+  </si>
+  <si>
+    <t>${addMem_2.organization_ID}</t>
+  </si>
+  <si>
+    <t>${addMem_1.name}</t>
+  </si>
+  <si>
+    <t>${addMem_2.name}</t>
+  </si>
+  <si>
+    <t>Adjust_3</t>
+  </si>
+  <si>
+    <t>Adjust_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_2.name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_1.name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_2.name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_1.name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>microfastup-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侯龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b8a23753-0f75-11e7-9aa4-00163e007053</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侯龙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -343,7 +367,25 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -665,7 +707,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -677,7 +719,7 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -692,10 +734,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -703,18 +745,18 @@
     <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="40.375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="21" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="50.25" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="26.5" bestFit="1" customWidth="1"/>
@@ -736,7 +778,7 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
         <v>15</v>
@@ -748,57 +790,57 @@
         <v>19</v>
       </c>
       <c r="H1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
         <v>21</v>
       </c>
-      <c r="J1" t="s">
-        <v>22</v>
-      </c>
       <c r="K1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" t="s">
         <v>26</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" t="s">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>34</v>
       </c>
-      <c r="S1" t="s">
-        <v>36</v>
-      </c>
-      <c r="T1" t="s">
-        <v>38</v>
-      </c>
       <c r="U1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W1" t="s">
         <v>39</v>
-      </c>
-      <c r="V1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -807,7 +849,7 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
@@ -815,61 +857,56 @@
       <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>59</v>
+      <c r="G2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L2" t="s">
         <v>25</v>
       </c>
-      <c r="L2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="M2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="P2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q2" t="s">
         <v>29</v>
       </c>
-      <c r="N2" t="s">
-        <v>61</v>
-      </c>
-      <c r="O2" t="s">
-        <v>65</v>
-      </c>
-      <c r="P2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" t="s">
         <v>33</v>
       </c>
-      <c r="R2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" t="s">
-        <v>37</v>
-      </c>
-      <c r="T2" t="s">
-        <v>18</v>
-      </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="V2" t="s">
-        <v>42</v>
-      </c>
-      <c r="W2" t="s">
-        <v>18</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="W2" s="5"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -877,65 +914,126 @@
       <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
-        <v>66</v>
+      <c r="D3" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H3" t="s">
-        <v>69</v>
+      <c r="G3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="I3" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" t="s">
-        <v>70</v>
+        <v>22</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="L3" t="s">
-        <v>71</v>
-      </c>
-      <c r="M3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="P3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>59</v>
+      </c>
+      <c r="R3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T3" s="6"/>
+      <c r="U3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V3" t="s">
+        <v>38</v>
+      </c>
+      <c r="W3" s="5"/>
+    </row>
+    <row r="4" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="N3" t="s">
-        <v>73</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="I4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O4" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="P3" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>74</v>
-      </c>
-      <c r="R3" t="s">
-        <v>75</v>
-      </c>
-      <c r="S3" t="s">
-        <v>37</v>
-      </c>
-      <c r="T3" t="s">
-        <v>18</v>
-      </c>
-      <c r="U3" t="s">
-        <v>40</v>
-      </c>
-      <c r="V3" t="s">
-        <v>42</v>
-      </c>
-      <c r="W3" t="s">
-        <v>18</v>
+      <c r="P4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +1044,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA3"/>
+  <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -957,38 +1055,34 @@
     <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.25" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.75" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="40.375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="40.75" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="50.25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
         <v>17</v>
@@ -997,28 +1091,28 @@
         <v>19</v>
       </c>
       <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
       <c r="H1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K1" t="s">
         <v>11</v>
       </c>
       <c r="L1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="M1" t="s">
         <v>13</v>
@@ -1027,81 +1121,69 @@
         <v>15</v>
       </c>
       <c r="O1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="P1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R1" t="s">
         <v>26</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>50</v>
-      </c>
-      <c r="R1" t="s">
-        <v>31</v>
       </c>
       <c r="S1" t="s">
         <v>32</v>
       </c>
       <c r="T1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="U1" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="V1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="W1" t="s">
-        <v>36</v>
-      </c>
-      <c r="X1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
         <v>41</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" t="s">
-        <v>45</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
+      <c r="D2" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
+        <v>52</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K2" t="s">
         <v>12</v>
       </c>
-      <c r="L2" t="s">
-        <v>57</v>
+      <c r="L2" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="M2" t="s">
         <v>14</v>
@@ -1109,127 +1191,167 @@
       <c r="N2" t="s">
         <v>16</v>
       </c>
-      <c r="O2" t="s">
-        <v>59</v>
+      <c r="O2" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="P2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="R2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
         <v>33</v>
       </c>
       <c r="T2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="U2" t="s">
-        <v>61</v>
-      </c>
-      <c r="V2" t="s">
-        <v>65</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="V2" s="6"/>
       <c r="W2" t="s">
-        <v>37</v>
-      </c>
-      <c r="X2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
-        <v>68</v>
+      <c r="D3" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3" t="s">
-        <v>70</v>
+        <v>63</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K3" t="s">
         <v>12</v>
       </c>
-      <c r="L3" t="s">
-        <v>66</v>
+      <c r="L3" s="6" t="s">
+        <v>87</v>
       </c>
       <c r="M3" t="s">
         <v>14</v>
       </c>
       <c r="N3" t="s">
-        <v>67</v>
-      </c>
-      <c r="O3" t="s">
-        <v>82</v>
+        <v>57</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="P3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>51</v>
+        <v>61</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="R3" t="s">
+        <v>62</v>
+      </c>
+      <c r="S3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V3" s="6"/>
+      <c r="W3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q4" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="S3" t="s">
-        <v>74</v>
-      </c>
-      <c r="T3" t="s">
-        <v>72</v>
-      </c>
-      <c r="U3" t="s">
-        <v>73</v>
-      </c>
-      <c r="V3" t="s">
-        <v>78</v>
-      </c>
-      <c r="W3" t="s">
-        <v>37</v>
-      </c>
-      <c r="X3" t="s">
+      <c r="R4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="T4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="Y3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>53</v>
+      <c r="U4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/sources/case/Adjust.xlsx
+++ b/sources/case/Adjust.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="97">
   <si>
     <t>CaseID</t>
   </si>
@@ -322,6 +322,26 @@
   </si>
   <si>
     <t>侯龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${position_3.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_3.name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${position_3.name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_3.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_3.name}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -736,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -982,7 +1002,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>16</v>
@@ -994,10 +1014,10 @@
         <v>88</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>22</v>
@@ -1018,7 +1038,7 @@
         <v>77</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="Q4" s="6" t="s">
         <v>29</v>
@@ -1046,8 +1066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1300,7 +1320,7 @@
         <v>88</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>91</v>
@@ -1321,7 +1341,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="M4" s="6" t="s">
         <v>14</v>
@@ -1330,10 +1350,10 @@
         <v>16</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="Q4" s="6" t="s">
         <v>76</v>

--- a/sources/case/Adjust.xlsx
+++ b/sources/case/Adjust.xlsx
@@ -41,307 +41,308 @@
     <t>BasePath</t>
   </si>
   <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>contentType</t>
+  </si>
+  <si>
+    <t>application/json</t>
+  </si>
+  <si>
+    <t>adjust_subordinates</t>
+  </si>
+  <si>
+    <t>1人</t>
+  </si>
+  <si>
+    <t>need_notify_employee</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>adjust_report_to</t>
+  </si>
+  <si>
+    <t>测试12</t>
+  </si>
+  <si>
+    <t>notify_content</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>employee_no</t>
+  </si>
+  <si>
+    <t>adjust_position_ID</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>transfer</t>
+  </si>
+  <si>
+    <t>employee</t>
+  </si>
+  <si>
+    <t>adjust_report_to_ID</t>
+  </si>
+  <si>
+    <t>7e2cf1a7-b2e4-11e7-93d8-5254001aba5d</t>
+  </si>
+  <si>
+    <t>organization_ID</t>
+  </si>
+  <si>
+    <t>adjust_organization_ID</t>
+  </si>
+  <si>
+    <t>adjust_subordinates_detail</t>
+  </si>
+  <si>
+    <t>[{"uuid":"7e2c4e7a-b2e4-11e7-93d8-5254001aba5d"}]</t>
+  </si>
+  <si>
+    <t>effective_date</t>
+  </si>
+  <si>
+    <t>2017-10-24T11:10:20+08:00</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>调整审批测试</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>subordinates</t>
+  </si>
+  <si>
+    <t>0人</t>
+  </si>
+  <si>
+    <t>subordinates_detail</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>position_ID</t>
+  </si>
+  <si>
+    <t>tenant_id</t>
+  </si>
+  <si>
+    <t>00b19169-fc38-4e51-a99f-98f31ccaa46d</t>
+  </si>
+  <si>
+    <t>is_deleted</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>approval_create</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>approval_creating</t>
+  </si>
+  <si>
+    <t>/hr/v1/formrecords?form=employee_adjust</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adjust_organization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adjust_position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${position_2.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_2.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adjust_position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_1.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试13</t>
+  </si>
+  <si>
+    <t>7e2dba5c-b2e4-11e7-93d8-5254001aba5d</t>
+  </si>
+  <si>
+    <t>[{"uuid":"7e2e64d0-b2e4-11e7-93d8-5254001aba5d"}]</t>
+  </si>
+  <si>
+    <t>2017-10-27T16:39:48+08:00</t>
+  </si>
+  <si>
+    <t>${organization_1.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_2.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${position_1.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${position_1.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_1.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adjust</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adjust_2</t>
+  </si>
+  <si>
+    <t>Adjust_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>microfastup-${addMem_1.employee_no}</t>
+  </si>
+  <si>
+    <t>microfastup-${addMem_2.employee_no}</t>
+  </si>
+  <si>
+    <t>${addMem_1.position}</t>
+  </si>
+  <si>
+    <t>${addMem_2.position}</t>
+  </si>
+  <si>
+    <t>employee_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${addMem_1.uuid}</t>
+  </si>
+  <si>
+    <t>${addMem_2.uuid}</t>
+  </si>
+  <si>
+    <t>${addMem_1.organization}</t>
+  </si>
+  <si>
+    <t>${addMem_1.organization_ID}</t>
+  </si>
+  <si>
+    <t>${addMem_2.organization}</t>
+  </si>
+  <si>
+    <t>${addMem_2.organization_ID}</t>
+  </si>
+  <si>
+    <t>${addMem_1.name}</t>
+  </si>
+  <si>
+    <t>${addMem_2.name}</t>
+  </si>
+  <si>
+    <t>Adjust_3</t>
+  </si>
+  <si>
+    <t>Adjust_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_2.name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_1.name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_2.name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_1.name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>microfastup-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侯龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b8a23753-0f75-11e7-9aa4-00163e007053</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侯龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${position_3.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_3.name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${position_3.name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_3.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_3.name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>http://console.t.upvi.com/bapi</t>
-  </si>
-  <si>
-    <t>Method</t>
-  </si>
-  <si>
-    <t>POST</t>
-  </si>
-  <si>
-    <t>contentType</t>
-  </si>
-  <si>
-    <t>application/json</t>
-  </si>
-  <si>
-    <t>adjust_subordinates</t>
-  </si>
-  <si>
-    <t>1人</t>
-  </si>
-  <si>
-    <t>need_notify_employee</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>adjust_report_to</t>
-  </si>
-  <si>
-    <t>测试12</t>
-  </si>
-  <si>
-    <t>notify_content</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>employee_no</t>
-  </si>
-  <si>
-    <t>adjust_position_ID</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>transfer</t>
-  </si>
-  <si>
-    <t>employee</t>
-  </si>
-  <si>
-    <t>adjust_report_to_ID</t>
-  </si>
-  <si>
-    <t>7e2cf1a7-b2e4-11e7-93d8-5254001aba5d</t>
-  </si>
-  <si>
-    <t>organization_ID</t>
-  </si>
-  <si>
-    <t>adjust_organization_ID</t>
-  </si>
-  <si>
-    <t>adjust_subordinates_detail</t>
-  </si>
-  <si>
-    <t>[{"uuid":"7e2c4e7a-b2e4-11e7-93d8-5254001aba5d"}]</t>
-  </si>
-  <si>
-    <t>effective_date</t>
-  </si>
-  <si>
-    <t>2017-10-24T11:10:20+08:00</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>调整审批测试</t>
-  </si>
-  <si>
-    <t>position</t>
-  </si>
-  <si>
-    <t>subordinates</t>
-  </si>
-  <si>
-    <t>0人</t>
-  </si>
-  <si>
-    <t>subordinates_detail</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>position_ID</t>
-  </si>
-  <si>
-    <t>tenant_id</t>
-  </si>
-  <si>
-    <t>00b19169-fc38-4e51-a99f-98f31ccaa46d</t>
-  </si>
-  <si>
-    <t>is_deleted</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>approval_create</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>approval_creating</t>
-  </si>
-  <si>
-    <t>/hr/v1/formrecords?form=employee_adjust</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>organization</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adjust_organization</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adjust_position</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${position_2.uuid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${organization_2.uuid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adjust_position</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>organization</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${organization_1.uuid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试13</t>
-  </si>
-  <si>
-    <t>7e2dba5c-b2e4-11e7-93d8-5254001aba5d</t>
-  </si>
-  <si>
-    <t>[{"uuid":"7e2e64d0-b2e4-11e7-93d8-5254001aba5d"}]</t>
-  </si>
-  <si>
-    <t>2017-10-27T16:39:48+08:00</t>
-  </si>
-  <si>
-    <t>${organization_1.uuid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${organization_2.uuid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${position_1.uuid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${position_1.uuid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${organization_1.uuid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Adjust</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Adjust_2</t>
-  </si>
-  <si>
-    <t>Adjust_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>microfastup-${addMem_1.employee_no}</t>
-  </si>
-  <si>
-    <t>microfastup-${addMem_2.employee_no}</t>
-  </si>
-  <si>
-    <t>${addMem_1.position}</t>
-  </si>
-  <si>
-    <t>${addMem_2.position}</t>
-  </si>
-  <si>
-    <t>employee_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${addMem_1.uuid}</t>
-  </si>
-  <si>
-    <t>${addMem_2.uuid}</t>
-  </si>
-  <si>
-    <t>${addMem_1.organization}</t>
-  </si>
-  <si>
-    <t>${addMem_1.organization_ID}</t>
-  </si>
-  <si>
-    <t>${addMem_2.organization}</t>
-  </si>
-  <si>
-    <t>${addMem_2.organization_ID}</t>
-  </si>
-  <si>
-    <t>${addMem_1.name}</t>
-  </si>
-  <si>
-    <t>${addMem_2.name}</t>
-  </si>
-  <si>
-    <t>Adjust_3</t>
-  </si>
-  <si>
-    <t>Adjust_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${organization_2.name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${organization_1.name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${organization_2.name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${organization_1.name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>microfastup-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>侯龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b8a23753-0f75-11e7-9aa4-00163e007053</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>侯龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${position_3.uuid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${organization_3.name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${position_3.name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${organization_3.uuid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${organization_3.name}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -349,7 +350,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -362,6 +363,14 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -382,12 +391,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -409,9 +421,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -692,7 +708,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -713,7 +729,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
@@ -722,33 +738,36 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -792,268 +811,268 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
         <v>50</v>
       </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" t="s">
-        <v>21</v>
-      </c>
       <c r="K1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
         <v>23</v>
       </c>
-      <c r="L1" t="s">
-        <v>24</v>
-      </c>
       <c r="M1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
         <v>26</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" t="s">
-        <v>28</v>
-      </c>
       <c r="R1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" t="s">
         <v>34</v>
       </c>
-      <c r="U1" t="s">
-        <v>35</v>
-      </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P2" t="s">
         <v>52</v>
       </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="L2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="P2" t="s">
-        <v>53</v>
-      </c>
       <c r="Q2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W2" s="5"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L3" t="s">
         <v>57</v>
       </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="M3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="P3" t="s">
         <v>64</v>
       </c>
-      <c r="J3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="Q3" t="s">
         <v>58</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="P3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>59</v>
       </c>
-      <c r="R3" t="s">
-        <v>60</v>
-      </c>
       <c r="S3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T3" s="6"/>
       <c r="U3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W3" s="5"/>
     </row>
     <row r="4" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="L4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P4" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>95</v>
-      </c>
       <c r="Q4" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V4" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1102,276 +1121,276 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" t="s">
-        <v>21</v>
-      </c>
       <c r="H1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
         <v>54</v>
       </c>
-      <c r="P1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>55</v>
-      </c>
       <c r="R1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>69</v>
-      </c>
       <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="P2" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="M2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="P2" t="s">
-        <v>53</v>
-      </c>
       <c r="Q2" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="U2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V2" s="6"/>
       <c r="W2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="M3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" t="s">
-        <v>57</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>71</v>
-      </c>
       <c r="P3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="R3" t="s">
         <v>61</v>
       </c>
-      <c r="Q3" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="R3" t="s">
-        <v>62</v>
-      </c>
       <c r="S3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="U3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V3" s="6"/>
       <c r="W3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="M4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="O4" s="6" t="s">
+      <c r="P4" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="P4" s="6" t="s">
-        <v>95</v>
-      </c>
       <c r="Q4" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W4" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/sources/case/Adjust.xlsx
+++ b/sources/case/Adjust.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="99">
   <si>
     <t>CaseID</t>
   </si>
@@ -95,254 +95,265 @@
     <t>adjust_report_to_ID</t>
   </si>
   <si>
-    <t>7e2cf1a7-b2e4-11e7-93d8-5254001aba5d</t>
-  </si>
-  <si>
     <t>organization_ID</t>
   </si>
   <si>
     <t>adjust_organization_ID</t>
   </si>
   <si>
+    <t>effective_date</t>
+  </si>
+  <si>
+    <t>2017-10-24T11:10:20+08:00</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>调整审批测试</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>subordinates</t>
+  </si>
+  <si>
+    <t>0人</t>
+  </si>
+  <si>
+    <t>subordinates_detail</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>position_ID</t>
+  </si>
+  <si>
+    <t>is_deleted</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>approval_create</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>approval_creating</t>
+  </si>
+  <si>
+    <t>/hr/v1/formrecords?form=employee_adjust</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adjust_organization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adjust_position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${position_2.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_2.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adjust_position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_1.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试13</t>
+  </si>
+  <si>
+    <t>2017-10-27T16:39:48+08:00</t>
+  </si>
+  <si>
+    <t>${organization_1.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_2.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${position_1.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${position_1.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_1.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adjust</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adjust_2</t>
+  </si>
+  <si>
+    <t>Adjust_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>microfastup-${addMem_1.employee_no}</t>
+  </si>
+  <si>
+    <t>microfastup-${addMem_2.employee_no}</t>
+  </si>
+  <si>
+    <t>${addMem_1.position}</t>
+  </si>
+  <si>
+    <t>${addMem_2.position}</t>
+  </si>
+  <si>
+    <t>employee_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${addMem_1.uuid}</t>
+  </si>
+  <si>
+    <t>${addMem_2.uuid}</t>
+  </si>
+  <si>
+    <t>${addMem_1.organization}</t>
+  </si>
+  <si>
+    <t>${addMem_1.organization_ID}</t>
+  </si>
+  <si>
+    <t>${addMem_2.organization}</t>
+  </si>
+  <si>
+    <t>${addMem_2.organization_ID}</t>
+  </si>
+  <si>
+    <t>${addMem_1.name}</t>
+  </si>
+  <si>
+    <t>${addMem_2.name}</t>
+  </si>
+  <si>
+    <t>Adjust_3</t>
+  </si>
+  <si>
+    <t>Adjust_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_2.name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_1.name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_2.name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_1.name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${position_3.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_3.name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${position_3.name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_3.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_3.name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://console.t.upvi.com/bapi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_houlong.employee_no}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_houlong.user_name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_12.employee_id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_13.employee_id}</t>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_14.employee_id}</t>
+  </si>
+  <si>
     <t>adjust_subordinates_detail</t>
-  </si>
-  <si>
-    <t>[{"uuid":"7e2c4e7a-b2e4-11e7-93d8-5254001aba5d"}]</t>
-  </si>
-  <si>
-    <t>effective_date</t>
-  </si>
-  <si>
-    <t>2017-10-24T11:10:20+08:00</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>调整审批测试</t>
-  </si>
-  <si>
-    <t>position</t>
-  </si>
-  <si>
-    <t>subordinates</t>
-  </si>
-  <si>
-    <t>0人</t>
-  </si>
-  <si>
-    <t>subordinates_detail</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>position_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_houlong.employee_id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"uuid":"$csv{data.Auth.user_11.employee_id}"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"uuid":"$csv{data.Auth.user_12.employee_id}"}]</t>
+  </si>
+  <si>
+    <t>[{"uuid":"$csv{data.Auth.user_13.employee_id}"}]</t>
   </si>
   <si>
     <t>tenant_id</t>
-  </si>
-  <si>
-    <t>00b19169-fc38-4e51-a99f-98f31ccaa46d</t>
-  </si>
-  <si>
-    <t>is_deleted</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>approval_create</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>approval_creating</t>
-  </si>
-  <si>
-    <t>/hr/v1/formrecords?form=employee_adjust</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>organization</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adjust_organization</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adjust_position</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${position_2.uuid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${organization_2.uuid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adjust_position</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>organization</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${organization_1.uuid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试13</t>
-  </si>
-  <si>
-    <t>7e2dba5c-b2e4-11e7-93d8-5254001aba5d</t>
-  </si>
-  <si>
-    <t>[{"uuid":"7e2e64d0-b2e4-11e7-93d8-5254001aba5d"}]</t>
-  </si>
-  <si>
-    <t>2017-10-27T16:39:48+08:00</t>
-  </si>
-  <si>
-    <t>${organization_1.uuid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${organization_2.uuid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${position_1.uuid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${position_1.uuid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${organization_1.uuid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Adjust</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Adjust_2</t>
-  </si>
-  <si>
-    <t>Adjust_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>microfastup-${addMem_1.employee_no}</t>
-  </si>
-  <si>
-    <t>microfastup-${addMem_2.employee_no}</t>
-  </si>
-  <si>
-    <t>${addMem_1.position}</t>
-  </si>
-  <si>
-    <t>${addMem_2.position}</t>
-  </si>
-  <si>
-    <t>employee_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${addMem_1.uuid}</t>
-  </si>
-  <si>
-    <t>${addMem_2.uuid}</t>
-  </si>
-  <si>
-    <t>${addMem_1.organization}</t>
-  </si>
-  <si>
-    <t>${addMem_1.organization_ID}</t>
-  </si>
-  <si>
-    <t>${addMem_2.organization}</t>
-  </si>
-  <si>
-    <t>${addMem_2.organization_ID}</t>
-  </si>
-  <si>
-    <t>${addMem_1.name}</t>
-  </si>
-  <si>
-    <t>${addMem_2.name}</t>
-  </si>
-  <si>
-    <t>Adjust_3</t>
-  </si>
-  <si>
-    <t>Adjust_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${organization_2.name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${organization_1.name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${organization_2.name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${organization_1.name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>microfastup-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>侯龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b8a23753-0f75-11e7-9aa4-00163e007053</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>侯龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${position_3.uuid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${organization_3.name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${position_3.name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${organization_3.uuid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${organization_3.name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://console.t.upvi.com/bapi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.Tenant.microfastup.tenant_id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -707,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -743,7 +754,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -752,10 +763,10 @@
         <v>7</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -775,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -787,12 +798,12 @@
     <col min="4" max="4" width="21.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="40.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38.875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="41.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="24.875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="27.625" bestFit="1" customWidth="1"/>
@@ -817,7 +828,7 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
@@ -829,7 +840,7 @@
         <v>18</v>
       </c>
       <c r="H1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s">
         <v>19</v>
@@ -844,42 +855,42 @@
         <v>23</v>
       </c>
       <c r="M1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="N1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="O1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" t="s">
         <v>25</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
+        <v>91</v>
+      </c>
+      <c r="R1" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R1" t="s">
-        <v>29</v>
-      </c>
       <c r="S1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U1" t="s">
         <v>31</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>33</v>
       </c>
-      <c r="U1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V1" t="s">
-        <v>36</v>
-      </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -888,7 +899,7 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -897,55 +908,55 @@
         <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="I2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J2" t="s">
         <v>21</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="L2" t="s">
-        <v>24</v>
+        <v>72</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="P2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q2" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="R2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="S2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U2" t="s">
         <v>32</v>
       </c>
-      <c r="U2" t="s">
-        <v>35</v>
-      </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="W2" s="5"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -954,65 +965,65 @@
         <v>13</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="I3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
         <v>21</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="L3" t="s">
+        <v>73</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P3" t="s">
         <v>57</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="P3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>58</v>
+      <c r="Q3" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="R3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="S3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="T3" s="6"/>
       <c r="U3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="V3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="W3" s="5"/>
     </row>
     <row r="4" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>11</v>
@@ -1021,58 +1032,55 @@
         <v>13</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>21</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="S4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="U4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="U4" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="V4" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1086,7 +1094,7 @@
   <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1096,7 +1104,7 @@
     <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.125" bestFit="1" customWidth="1"/>
@@ -1121,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="C1" t="s">
         <v>16</v>
@@ -1139,19 +1147,19 @@
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K1" t="s">
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="M1" t="s">
         <v>12</v>
@@ -1160,69 +1168,69 @@
         <v>14</v>
       </c>
       <c r="O1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="P1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="R1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="T1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U1" t="s">
         <v>33</v>
       </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
       <c r="V1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="W1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K2" t="s">
         <v>11</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="M2" t="s">
         <v>13</v>
@@ -1231,166 +1239,166 @@
         <v>15</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="P2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="R2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="S2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="T2" t="s">
         <v>17</v>
       </c>
       <c r="U2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="V2" s="6"/>
       <c r="W2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" t="s">
-        <v>40</v>
+        <v>59</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K3" t="s">
         <v>11</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="M3" t="s">
         <v>13</v>
       </c>
       <c r="N3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="O3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q3" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="P3" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>77</v>
-      </c>
       <c r="R3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="S3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="T3" t="s">
         <v>17</v>
       </c>
       <c r="U3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="V3" s="6"/>
       <c r="W3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>90</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>21</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="M4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="T4" s="6" t="s">
         <v>17</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="W4" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/sources/case/Adjust.xlsx
+++ b/sources/case/Adjust.xlsx
@@ -68,9 +68,6 @@
     <t>adjust_report_to</t>
   </si>
   <si>
-    <t>测试12</t>
-  </si>
-  <si>
     <t>notify_content</t>
   </si>
   <si>
@@ -149,211 +146,215 @@
     <t>approval_creating</t>
   </si>
   <si>
+    <t>organization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adjust_organization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adjust_position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${position_2.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_2.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adjust_position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_1.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-10-27T16:39:48+08:00</t>
+  </si>
+  <si>
+    <t>${organization_1.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_2.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${position_1.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${position_1.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_1.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adjust</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adjust_2</t>
+  </si>
+  <si>
+    <t>Adjust_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>microfastup-${addMem_1.employee_no}</t>
+  </si>
+  <si>
+    <t>microfastup-${addMem_2.employee_no}</t>
+  </si>
+  <si>
+    <t>${addMem_1.position}</t>
+  </si>
+  <si>
+    <t>${addMem_2.position}</t>
+  </si>
+  <si>
+    <t>employee_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${addMem_1.uuid}</t>
+  </si>
+  <si>
+    <t>${addMem_2.uuid}</t>
+  </si>
+  <si>
+    <t>${addMem_1.organization}</t>
+  </si>
+  <si>
+    <t>${addMem_1.organization_ID}</t>
+  </si>
+  <si>
+    <t>${addMem_2.organization}</t>
+  </si>
+  <si>
+    <t>${addMem_2.organization_ID}</t>
+  </si>
+  <si>
+    <t>${addMem_1.name}</t>
+  </si>
+  <si>
+    <t>${addMem_2.name}</t>
+  </si>
+  <si>
+    <t>Adjust_3</t>
+  </si>
+  <si>
+    <t>Adjust_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_2.name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_1.name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_2.name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_1.name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${position_3.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_3.name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${position_3.name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_3.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_3.name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://console.t.upvi.com/bapi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_houlong.employee_no}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_houlong.user_name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_12.employee_id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_13.employee_id}</t>
+  </si>
+  <si>
+    <t>adjust_subordinates_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_houlong.employee_id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"uuid":"$csv{data.Auth.user_11.employee_id}"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"uuid":"$csv{data.Auth.user_12.employee_id}"}]</t>
+  </si>
+  <si>
+    <t>[{"uuid":"$csv{data.Auth.user_13.employee_id}"}]</t>
+  </si>
+  <si>
+    <t>tenant_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.Tenant.microfastup.tenant_id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_11.employee_id}</t>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_12.user_name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_13.user_name}</t>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_11.user_name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/hr/v1/formrecords?form=employee_adjust</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>organization</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adjust_organization</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adjust_position</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${position_2.uuid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${organization_2.uuid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adjust_position</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>organization</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${organization_1.uuid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试13</t>
-  </si>
-  <si>
-    <t>2017-10-27T16:39:48+08:00</t>
-  </si>
-  <si>
-    <t>${organization_1.uuid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${organization_2.uuid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${position_1.uuid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${position_1.uuid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${organization_1.uuid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Adjust</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Adjust_2</t>
-  </si>
-  <si>
-    <t>Adjust_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>microfastup-${addMem_1.employee_no}</t>
-  </si>
-  <si>
-    <t>microfastup-${addMem_2.employee_no}</t>
-  </si>
-  <si>
-    <t>${addMem_1.position}</t>
-  </si>
-  <si>
-    <t>${addMem_2.position}</t>
-  </si>
-  <si>
-    <t>employee_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${addMem_1.uuid}</t>
-  </si>
-  <si>
-    <t>${addMem_2.uuid}</t>
-  </si>
-  <si>
-    <t>${addMem_1.organization}</t>
-  </si>
-  <si>
-    <t>${addMem_1.organization_ID}</t>
-  </si>
-  <si>
-    <t>${addMem_2.organization}</t>
-  </si>
-  <si>
-    <t>${addMem_2.organization_ID}</t>
-  </si>
-  <si>
-    <t>${addMem_1.name}</t>
-  </si>
-  <si>
-    <t>${addMem_2.name}</t>
-  </si>
-  <si>
-    <t>Adjust_3</t>
-  </si>
-  <si>
-    <t>Adjust_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${organization_2.name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${organization_1.name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${organization_2.name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${organization_1.name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${position_3.uuid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${organization_3.name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${position_3.name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${organization_3.uuid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${organization_3.name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://console.t.upvi.com/bapi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$csv{data.Auth.user_houlong.employee_no}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$csv{data.Auth.user_houlong.user_name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$csv{data.Auth.user_12.employee_id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$csv{data.Auth.user_13.employee_id}</t>
-  </si>
-  <si>
-    <t>$csv{data.Auth.user_14.employee_id}</t>
-  </si>
-  <si>
-    <t>adjust_subordinates_detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$csv{data.Auth.user_houlong.employee_id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"uuid":"$csv{data.Auth.user_11.employee_id}"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"uuid":"$csv{data.Auth.user_12.employee_id}"}]</t>
-  </si>
-  <si>
-    <t>[{"uuid":"$csv{data.Auth.user_13.employee_id}"}]</t>
-  </si>
-  <si>
-    <t>tenant_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$csv{data.Tenant.microfastup.tenant_id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -719,7 +720,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -754,7 +755,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -763,10 +764,10 @@
         <v>7</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -786,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -796,7 +797,7 @@
     <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="39.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.625" bestFit="1" customWidth="1"/>
@@ -828,69 +829,69 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" t="s">
-        <v>20</v>
-      </c>
       <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
         <v>22</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" t="s">
         <v>23</v>
       </c>
-      <c r="M1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N1" t="s">
-        <v>43</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>24</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
+        <v>87</v>
+      </c>
+      <c r="R1" t="s">
         <v>25</v>
       </c>
-      <c r="Q1" t="s">
-        <v>91</v>
-      </c>
-      <c r="R1" t="s">
-        <v>26</v>
-      </c>
       <c r="S1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U1" t="s">
         <v>30</v>
       </c>
-      <c r="U1" t="s">
-        <v>31</v>
-      </c>
       <c r="V1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -899,64 +900,64 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
+        <v>73</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="N2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="P2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="R2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W2" s="5"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -965,65 +966,65 @@
         <v>13</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" t="s">
-        <v>51</v>
+        <v>74</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>96</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="N3" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="O3" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="P3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="R3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="S3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T3" s="6"/>
       <c r="U3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W3" s="5"/>
     </row>
     <row r="4" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>11</v>
@@ -1032,55 +1033,55 @@
         <v>13</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="I4" s="6" t="s">
+      <c r="L4" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="J4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="Q4" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V4" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1093,8 +1094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1112,7 +1113,7 @@
     <col min="11" max="11" width="18.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21.625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.75" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20.625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="21.625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="24.875" bestFit="1" customWidth="1"/>
@@ -1129,37 +1130,37 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" t="s">
-        <v>20</v>
-      </c>
       <c r="H1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K1" t="s">
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M1" t="s">
         <v>12</v>
@@ -1168,237 +1169,237 @@
         <v>14</v>
       </c>
       <c r="O1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="R1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="V1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K2" t="s">
         <v>11</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="M2" t="s">
         <v>13</v>
       </c>
-      <c r="N2" t="s">
-        <v>15</v>
+      <c r="N2" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="P2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="S2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V2" s="6"/>
       <c r="W2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>62</v>
-      </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K3" t="s">
         <v>11</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M3" t="s">
         <v>13</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="R3" t="s">
         <v>51</v>
       </c>
-      <c r="O3" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="P3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="R3" t="s">
-        <v>54</v>
-      </c>
       <c r="S3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V3" s="6"/>
       <c r="W3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T4" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W4" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/sources/case/Adjust.xlsx
+++ b/sources/case/Adjust.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="100">
   <si>
     <t>CaseID</t>
   </si>
@@ -101,9 +101,6 @@
     <t>effective_date</t>
   </si>
   <si>
-    <t>2017-10-24T11:10:20+08:00</t>
-  </si>
-  <si>
     <t>comment</t>
   </si>
   <si>
@@ -178,9 +175,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2017-10-27T16:39:48+08:00</t>
-  </si>
-  <si>
     <t>${organization_1.uuid}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -355,6 +349,18 @@
   </si>
   <si>
     <t>/hr/v1/formrecords?form=employee_adjust</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Date.today}T11:10:20+08:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Date.today}T11:10:20+08:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Date.today}T16:39:48+08:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -719,7 +725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -755,7 +761,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -764,10 +770,10 @@
         <v>7</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -787,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -829,7 +835,7 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
@@ -841,7 +847,7 @@
         <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I1" t="s">
         <v>18</v>
@@ -856,10 +862,10 @@
         <v>22</v>
       </c>
       <c r="M1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O1" t="s">
         <v>23</v>
@@ -868,30 +874,30 @@
         <v>24</v>
       </c>
       <c r="Q1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="R1" t="s">
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="T1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" t="s">
         <v>29</v>
       </c>
-      <c r="U1" t="s">
-        <v>30</v>
-      </c>
       <c r="V1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -900,64 +906,64 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J2" t="s">
         <v>20</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="M2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="N2" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="O2" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="R2" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="S2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W2" s="5"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -966,65 +972,65 @@
         <v>13</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J3" t="s">
         <v>20</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="R3" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="S3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T3" s="6"/>
       <c r="U3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W3" s="5"/>
     </row>
     <row r="4" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>11</v>
@@ -1033,55 +1039,55 @@
         <v>13</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="H4" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>20</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V4" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1094,7 +1100,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
@@ -1130,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C1" t="s">
         <v>15</v>
@@ -1148,19 +1154,19 @@
         <v>19</v>
       </c>
       <c r="H1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K1" t="s">
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M1" t="s">
         <v>12</v>
@@ -1169,237 +1175,237 @@
         <v>14</v>
       </c>
       <c r="O1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P1" t="s">
         <v>24</v>
       </c>
       <c r="Q1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R1" t="s">
         <v>23</v>
       </c>
       <c r="S1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="T1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G2" t="s">
         <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K2" t="s">
         <v>11</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M2" t="s">
         <v>13</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T2" t="s">
         <v>16</v>
       </c>
       <c r="U2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="V2" s="6"/>
       <c r="W2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G3" t="s">
         <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K3" t="s">
         <v>11</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M3" t="s">
         <v>13</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="R3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="S3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T3" t="s">
         <v>16</v>
       </c>
       <c r="U3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="V3" s="6"/>
       <c r="W3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>20</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W4" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/sources/case/Adjust.xlsx
+++ b/sources/case/Adjust.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -195,172 +195,172 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Adjust_2</t>
+  </si>
+  <si>
+    <t>Adjust_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>microfastup-${addMem_1.employee_no}</t>
+  </si>
+  <si>
+    <t>microfastup-${addMem_2.employee_no}</t>
+  </si>
+  <si>
+    <t>${addMem_1.position}</t>
+  </si>
+  <si>
+    <t>${addMem_2.position}</t>
+  </si>
+  <si>
+    <t>employee_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${addMem_1.uuid}</t>
+  </si>
+  <si>
+    <t>${addMem_2.uuid}</t>
+  </si>
+  <si>
+    <t>${addMem_1.organization}</t>
+  </si>
+  <si>
+    <t>${addMem_1.organization_ID}</t>
+  </si>
+  <si>
+    <t>${addMem_2.organization}</t>
+  </si>
+  <si>
+    <t>${addMem_2.organization_ID}</t>
+  </si>
+  <si>
+    <t>${addMem_1.name}</t>
+  </si>
+  <si>
+    <t>${addMem_2.name}</t>
+  </si>
+  <si>
+    <t>Adjust_3</t>
+  </si>
+  <si>
+    <t>Adjust_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_2.name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_1.name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_2.name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_1.name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${position_3.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_3.name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${position_3.name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_3.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${organization_3.name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://console.t.upvi.com/bapi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_houlong.employee_no}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_houlong.user_name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_12.employee_id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_13.employee_id}</t>
+  </si>
+  <si>
+    <t>adjust_subordinates_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_houlong.employee_id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"uuid":"$csv{data.Auth.user_11.employee_id}"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"uuid":"$csv{data.Auth.user_12.employee_id}"}]</t>
+  </si>
+  <si>
+    <t>[{"uuid":"$csv{data.Auth.user_13.employee_id}"}]</t>
+  </si>
+  <si>
+    <t>tenant_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.Tenant.microfastup.tenant_id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_11.employee_id}</t>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_12.user_name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_13.user_name}</t>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_11.user_name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hr/v1/formrecords?form=employee_adjust</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Date.today}T11:10:20+08:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Date.today}T11:10:20+08:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Date.today}T16:39:48+08:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Adjust</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Adjust_2</t>
-  </si>
-  <si>
-    <t>Adjust_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>microfastup-${addMem_1.employee_no}</t>
-  </si>
-  <si>
-    <t>microfastup-${addMem_2.employee_no}</t>
-  </si>
-  <si>
-    <t>${addMem_1.position}</t>
-  </si>
-  <si>
-    <t>${addMem_2.position}</t>
-  </si>
-  <si>
-    <t>employee_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${addMem_1.uuid}</t>
-  </si>
-  <si>
-    <t>${addMem_2.uuid}</t>
-  </si>
-  <si>
-    <t>${addMem_1.organization}</t>
-  </si>
-  <si>
-    <t>${addMem_1.organization_ID}</t>
-  </si>
-  <si>
-    <t>${addMem_2.organization}</t>
-  </si>
-  <si>
-    <t>${addMem_2.organization_ID}</t>
-  </si>
-  <si>
-    <t>${addMem_1.name}</t>
-  </si>
-  <si>
-    <t>${addMem_2.name}</t>
-  </si>
-  <si>
-    <t>Adjust_3</t>
-  </si>
-  <si>
-    <t>Adjust_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${organization_2.name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${organization_1.name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${organization_2.name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${organization_1.name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${position_3.uuid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${organization_3.name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${position_3.name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${organization_3.uuid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${organization_3.name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://console.t.upvi.com/bapi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$csv{data.Auth.user_houlong.employee_no}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$csv{data.Auth.user_houlong.user_name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$csv{data.Auth.user_12.employee_id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$csv{data.Auth.user_13.employee_id}</t>
-  </si>
-  <si>
-    <t>adjust_subordinates_detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$csv{data.Auth.user_houlong.employee_id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"uuid":"$csv{data.Auth.user_11.employee_id}"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"uuid":"$csv{data.Auth.user_12.employee_id}"}]</t>
-  </si>
-  <si>
-    <t>[{"uuid":"$csv{data.Auth.user_13.employee_id}"}]</t>
-  </si>
-  <si>
-    <t>tenant_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$csv{data.Tenant.microfastup.tenant_id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$csv{data.Auth.user_11.employee_id}</t>
-  </si>
-  <si>
-    <t>$csv{data.Auth.user_12.user_name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$csv{data.Auth.user_13.user_name}</t>
-  </si>
-  <si>
-    <t>$csv{data.Auth.user_11.user_name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/hr/v1/formrecords?form=employee_adjust</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Date.today}T11:10:20+08:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Date.today}T11:10:20+08:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Date.today}T16:39:48+08:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -725,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -761,7 +761,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -770,10 +770,10 @@
         <v>7</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -793,7 +793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -862,7 +862,7 @@
         <v>22</v>
       </c>
       <c r="M1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N1" t="s">
         <v>40</v>
@@ -874,7 +874,7 @@
         <v>24</v>
       </c>
       <c r="Q1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R1" t="s">
         <v>25</v>
@@ -897,7 +897,7 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I2" t="s">
         <v>43</v>
@@ -927,28 +927,28 @@
         <v>20</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="P2" t="s">
         <v>44</v>
       </c>
       <c r="Q2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S2" t="s">
         <v>27</v>
@@ -963,7 +963,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -972,19 +972,19 @@
         <v>13</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="I3" t="s">
         <v>51</v>
@@ -993,28 +993,28 @@
         <v>20</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O3" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="P3" t="s">
         <v>52</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S3" t="s">
         <v>27</v>
@@ -1030,7 +1030,7 @@
     </row>
     <row r="4" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>11</v>
@@ -1039,46 +1039,46 @@
         <v>13</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>20</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N4" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="O4" s="6" t="s">
-        <v>64</v>
-      </c>
       <c r="P4" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S4" s="6" t="s">
         <v>27</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1" t="s">
         <v>15</v>
@@ -1204,22 +1204,22 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
         <v>43</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G2" t="s">
         <v>20</v>
@@ -1237,22 +1237,22 @@
         <v>11</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M2" t="s">
         <v>13</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P2" t="s">
         <v>44</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R2" t="s">
         <v>47</v>
@@ -1273,22 +1273,22 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
         <v>50</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G3" t="s">
         <v>20</v>
@@ -1306,22 +1306,22 @@
         <v>11</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M3" t="s">
         <v>13</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P3" t="s">
         <v>48</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R3" t="s">
         <v>49</v>
@@ -1342,22 +1342,22 @@
     </row>
     <row r="4" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>81</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>82</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>20</v>
@@ -1375,22 +1375,22 @@
         <v>11</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P4" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="P4" s="6" t="s">
-        <v>78</v>
-      </c>
       <c r="Q4" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R4" s="6" t="s">
         <v>47</v>

--- a/sources/case/Adjust.xlsx
+++ b/sources/case/Adjust.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="93">
   <si>
     <t>CaseID</t>
   </si>
@@ -155,14 +155,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${position_2.uuid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${organization_2.uuid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>adjust_position</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -171,30 +163,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${organization_1.uuid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${organization_1.uuid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${organization_2.uuid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${position_1.uuid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${position_1.uuid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${organization_1.uuid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Adjust_2</t>
   </si>
   <si>
@@ -249,42 +217,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${organization_2.name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${organization_1.name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${organization_2.name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${organization_1.name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${position_3.uuid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${organization_3.name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${position_3.name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${organization_3.uuid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${organization_3.name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://console.t.upvi.com/bapi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -362,6 +294,36 @@
   <si>
     <t>Adjust</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.organization.organization_2.name}</t>
+  </si>
+  <si>
+    <t>$csv{data.organization.organization_2.uuid}</t>
+  </si>
+  <si>
+    <t>$csv{data.organization.organization_1.name}</t>
+  </si>
+  <si>
+    <t>$csv{data.organization.organization_1.uuid}</t>
+  </si>
+  <si>
+    <t>$csv{data.organization.organization_3.name}</t>
+  </si>
+  <si>
+    <t>$csv{data.organization.organization_3.uuid}</t>
+  </si>
+  <si>
+    <t>$csv{data.position.position_2.uuid}</t>
+  </si>
+  <si>
+    <t>$csv{data.position.position_1.uuid}</t>
+  </si>
+  <si>
+    <t>$csv{data.position.position_3.name}</t>
+  </si>
+  <si>
+    <t>$csv{data.position.position_3.uuid}</t>
   </si>
 </sst>
 </file>
@@ -725,7 +687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -761,7 +723,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -770,10 +732,10 @@
         <v>7</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -794,7 +756,7 @@
   <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -802,20 +764,20 @@
     <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="39.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="37" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="38.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="38.875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="24.875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="27.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="50.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="42.875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="26.5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8" bestFit="1" customWidth="1"/>
@@ -862,7 +824,7 @@
         <v>22</v>
       </c>
       <c r="M1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="N1" t="s">
         <v>40</v>
@@ -874,7 +836,7 @@
         <v>24</v>
       </c>
       <c r="Q1" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="R1" t="s">
         <v>25</v>
@@ -897,7 +859,7 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -906,49 +868,49 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="I2" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="J2" t="s">
         <v>20</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="P2" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="Q2" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="R2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="S2" t="s">
         <v>27</v>
@@ -963,7 +925,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -972,49 +934,49 @@
         <v>13</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="I3" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="J3" t="s">
         <v>20</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="P3" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="R3" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="S3" t="s">
         <v>27</v>
@@ -1030,7 +992,7 @@
     </row>
     <row r="4" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>11</v>
@@ -1039,46 +1001,46 @@
         <v>13</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>20</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="S4" s="6" t="s">
         <v>27</v>
@@ -1100,30 +1062,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="37" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.25" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.75" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.75" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="31.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="39.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="39.5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18" bestFit="1" customWidth="1"/>
@@ -1136,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
         <v>15</v>
@@ -1175,13 +1137,13 @@
         <v>14</v>
       </c>
       <c r="O1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P1" t="s">
         <v>24</v>
       </c>
       <c r="Q1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="R1" t="s">
         <v>23</v>
@@ -1204,22 +1166,22 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="G2" t="s">
         <v>20</v>
@@ -1237,25 +1199,25 @@
         <v>11</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="M2" t="s">
         <v>13</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="P2" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="R2" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="S2" t="s">
         <v>27</v>
@@ -1273,22 +1235,22 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
         <v>20</v>
@@ -1306,25 +1268,25 @@
         <v>11</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="M3" t="s">
         <v>13</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="P3" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="R3" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="S3" t="s">
         <v>27</v>
@@ -1342,22 +1304,22 @@
     </row>
     <row r="4" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>20</v>
@@ -1375,25 +1337,25 @@
         <v>11</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="M4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="S4" s="6" t="s">
         <v>27</v>

--- a/sources/case/Adjust.xlsx
+++ b/sources/case/Adjust.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="94">
   <si>
     <t>CaseID</t>
   </si>
@@ -324,6 +324,10 @@
   </si>
   <si>
     <t>$csv{data.position.position_3.uuid}</t>
+  </si>
+  <si>
+    <t>$csv{data.organization.organization_2.name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -755,7 +759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -868,7 +872,7 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>75</v>
@@ -1062,7 +1066,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>

--- a/sources/case/Adjust.xlsx
+++ b/sources/case/Adjust.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="97">
   <si>
     <t>CaseID</t>
   </si>
@@ -327,6 +327,18 @@
   </si>
   <si>
     <t>$csv{data.organization.organization_2.name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.position.position_2.uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.position.position_2.name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.position.position_1.name}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -759,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -884,10 +896,10 @@
         <v>47</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="I2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="J2" t="s">
         <v>20</v>
@@ -949,8 +961,8 @@
       <c r="G3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>49</v>
+      <c r="H3" s="6" t="s">
+        <v>96</v>
       </c>
       <c r="I3" t="s">
         <v>90</v>
